--- a/biology/Botanique/Rhododendron_du_Canada/Rhododendron_du_Canada.xlsx
+++ b/biology/Botanique/Rhododendron_du_Canada/Rhododendron_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron canadense
-Le Rhododendron du Canada[1] (Rhododendron canadense) est une espèce de plantes à fleurs de la famille des Ericaceae. Elle est originaire d'Amérique du Nord.
+Le Rhododendron du Canada (Rhododendron canadense) est une espèce de plantes à fleurs de la famille des Ericaceae. Elle est originaire d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La plante est aussi connue en français sous les noms de « rhodora » et de «azalée»[2] ou « rhodora du Canada »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La plante est aussi connue en français sous les noms de « rhodora » et de «azalée» ou « rhodora du Canada ».
 Synonymes:
 Rhodora canadensis L.
 Azalea canadensis (L.) Kuntze</t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhododendron du Canada est un arbuste de forme ronde atteignant 1m de hauteur. Au printemps, les fleurs rose pourpré apparaissent avant les feuilles, côtoyant les capsules desséchées brun roux de l'année précédente.
 Contrairement à bien des Éricacées, les fleurs de R. canadense sont zygomorphes, c'est-à-dire qu'elles présentent un symétrie bilatérale. La corolle rose est divisée en trois segments. Celui de la partie supérieure de la fleur est dressé et se termine en trois lobes, tandis que les deux autres  pointent vers le sol. Les étamines, au nombre de 10, sont composées d'un long filet et d'une anthère jaune très courte.
@@ -578,7 +594,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rhododendron du Canada s'étend du Labrador à l'est de l'Ontario, et descend aux États-Unis en Nouvelle-Angleterre à New York et au New Jersey. On le retrouve aussi en altitude dans les Appalaches de Pennsylvanie.
 Il croît dans les sols acides. Il est fréquent dans les tourbières ombrotrophes (bogs), où il s'établit préférentiellement dans les microhabitats secs, mais on le retrouve aussi dans en sol minéral acide.
